--- a/data/trans_bre/P1423_2016_2023-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1423_2016_2023-Dificultad-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>6.900083942175719</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>3.772612123269693</v>
+        <v>3.772612123269689</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>1.843713363471301</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.3325869603409706</v>
+        <v>0.3325869603409702</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.782532834618501</v>
+        <v>4.728353002756283</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1781495353648797</v>
+        <v>0.2281128717701141</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1.027181545840391</v>
+        <v>0.9806928786283334</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.01425878380588019</v>
+        <v>0.002671392752925132</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.113295410215153</v>
+        <v>9.015375686884299</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.473534430860425</v>
+        <v>7.51797426622524</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3.130296269253679</v>
+        <v>2.999989023531714</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.8192670743435818</v>
+        <v>0.8356238305328405</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.623628665460572</v>
+        <v>2.785988669644831</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.264552947606386</v>
+        <v>3.355044920530442</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.358468403970357</v>
+        <v>1.452427992471804</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.6367001078803455</v>
+        <v>0.6458303482137572</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.863392903310065</v>
+        <v>5.998235619543638</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.140240556603603</v>
+        <v>7.107699262640703</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>8.402380183567754</v>
+        <v>8.471274154363902</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.308408379533923</v>
+        <v>2.258520087956569</v>
       </c>
     </row>
     <row r="10">
@@ -726,7 +726,7 @@
         <v>2.209469100380049</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.9548598210188359</v>
+        <v>0.9548598210188362</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.645749606210945</v>
+        <v>1.532657295688987</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.379768058130815</v>
+        <v>1.304425045236661</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.7015936917921921</v>
+        <v>0.5341043946757759</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.3223286986345795</v>
+        <v>0.3152049447343614</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.607408310799462</v>
+        <v>5.313975493733015</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.691596014616946</v>
+        <v>4.548739513346286</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>5.594144614411833</v>
+        <v>5.456178148996543</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.93466188845647</v>
+        <v>1.921791181276225</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.673086400307587</v>
+        <v>0.5777958205790059</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.6187185469197877</v>
+        <v>-0.7303893596299521</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2243793991035255</v>
+        <v>0.08266327993681051</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1498308113450187</v>
+        <v>-0.1636401062137462</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.395419666937593</v>
+        <v>4.363523265020061</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.828437671847973</v>
+        <v>2.803748956016126</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14.46234799501645</v>
+        <v>13.81284714890919</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.111211732937486</v>
+        <v>1.163742468194658</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>4.776879811842936</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>3.591238412529503</v>
+        <v>3.591238412529505</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>2.305627541873088</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.7706947428703242</v>
+        <v>0.7706947428703248</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.850564436967029</v>
+        <v>3.760999005636441</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.601940828655676</v>
+        <v>2.444063987684825</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1.535151157268996</v>
+        <v>1.490133359953425</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.4955063084505603</v>
+        <v>0.4544053796663847</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.85667275207488</v>
+        <v>5.761555221557306</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.624377214266742</v>
+        <v>4.54223309084519</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3.354015855307706</v>
+        <v>3.411381053109259</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.124361464433306</v>
+        <v>1.094335187968368</v>
       </c>
     </row>
     <row r="19">
